--- a/document/アイデアまとめシート.xlsx
+++ b/document/アイデアまとめシート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25803"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A568BF4-1443-9F4B-9D8A-4C6A83B1488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E61421-C682-46A4-8C5C-DBB79966B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="3680" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14868" yWindow="4524" windowWidth="17424" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アイデアまとめシート" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ITシステム開発演習II　アイデアまとめシート</t>
     <rPh sb="6" eb="10">
@@ -46,6 +46,16 @@
     <t>チーム名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀のパン屋</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -58,7 +68,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>中川楓翔</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林 威彤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙本 龍信</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陳 鏡宇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御手洗 匠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>問題定義（生活定点のデータからどのような問題・課題があるか）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,飲食店の仕事は手間が多くかかり忙しい
+2,小規模飲食店ではスタッフの仕事が大変
+3,飲食店のアルバイトスタッフの仕事中のモチベーションが低い</t>
+    <rPh sb="2" eb="4">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イソガ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ショウキボ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイヘン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -78,6 +156,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">小規模飲食店にはいくつかの問題があり、それは人手不足やメニューの作成、変更コスト、デジタル化不足など大規模飲食店に比べて、小規模飲食店ではITサービスの導入コストが高く従業員を教育する時間が十分に取れない。
+</t>
+    <rPh sb="0" eb="6">
+      <t>ショウキボインショクテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒトデ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ダイキボ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ターゲット（上記、問題点はどのような人たちに必要とされているか）</t>
     <rPh sb="6" eb="8">
       <t>ジョウキ</t>
@@ -93,6 +212,41 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITソリューションを導入してみたい飲食店
+人手不足や資金不足な小規模飲食店</t>
+    <rPh sb="10" eb="12">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒトデ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シキン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブソク</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ショウキボ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,6 +261,11 @@
     <rPh sb="20" eb="22">
       <t>カイケツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web app開発：テンプレートを使い開発コストを安く抑え
+LINE公式アカウント統合サービス：LINEBotを利用することでメニューやホームページなど営業に関することや宣伝などにも使いやすくできる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -118,13 +277,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -132,14 +291,14 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -147,7 +306,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -155,7 +314,7 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -390,7 +549,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,16 +829,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.3984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="4.3984375" style="1"/>
+    <col min="1" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36">
+    <row r="1" spans="1:18" ht="41.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -701,12 +860,14 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" ht="20">
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="22.15">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="16"/>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -725,7 +886,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -747,20 +908,26 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -788,13 +955,17 @@
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -829,7 +1000,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -850,7 +1021,9 @@
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="19"/>
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -971,7 +1144,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -992,7 +1165,9 @@
       <c r="R15" s="12"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="19"/>
+      <c r="A16" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -1113,7 +1288,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="11" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1134,7 +1309,9 @@
       <c r="R22" s="12"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -1195,7 +1372,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1216,7 +1393,9 @@
       <c r="R26" s="12"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="20"/>
+      <c r="A27" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -1470,9 +1649,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1641,46 +1823,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60023016-BA25-44B7-8A13-BB9154ECD3BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCBB572-1744-406C-B539-A3ED7A1F7B6F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF9ADB5-A68C-483D-BAEA-54213A7D5B29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4c899a37-be85-4b53-b311-864469a6ba27"/>
-    <ds:schemaRef ds:uri="2662910d-ef49-44d0-8cb6-cb552c7a1b68"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF9ADB5-A68C-483D-BAEA-54213A7D5B29}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCBB572-1744-406C-B539-A3ED7A1F7B6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60023016-BA25-44B7-8A13-BB9154ECD3BA}"/>
 </file>